--- a/data/missions.xlsx
+++ b/data/missions.xlsx
@@ -448,7 +448,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>766b62c0-67c4-48b4-9afb-5340047dabab</v>
+        <v>61c7f0c7-0e18-48c0-920b-80de376e6d9c</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>2025-09-14T10:04:43.016Z</v>
+        <v>2025-09-14T10:18:58.085Z</v>
       </c>
     </row>
   </sheetData>

--- a/data/missions.xlsx
+++ b/data/missions.xlsx
@@ -451,13 +451,13 @@
         <v>61c7f0c7-0e18-48c0-920b-80de376e6d9c</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>محمد مجدى السيد عبد الدايم</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>20أ القاهرة</v>
       </c>
       <c r="E2" t="str">
         <v>2025-09-14</v>

--- a/data/missions.xlsx
+++ b/data/missions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,10 +451,10 @@
         <v>61c7f0c7-0e18-48c0-920b-80de376e6d9c</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C2" t="str">
-        <v>محمد مجدى السيد عبد الدايم</v>
+        <v>عبد العزيز صلاح عبد العزيز على حسن</v>
       </c>
       <c r="D2" t="str">
         <v>20أ القاهرة</v>
@@ -463,18 +463,70 @@
         <v>2025-09-14</v>
       </c>
       <c r="H2" t="str">
-        <v>[]</v>
+        <v>[{"id":"expense-1","type":"transportation","amount":100,"banks":["كريدى","مانى فيللوز"]},{"id":"expense-2","type":"transportation","amount":30,"banks":["اسكندرية"]},{"id":"expense-3","type":"hospitality","amount":0,"banks":[]},{"id":"expense-4","type":"fees","amount":0,"banks":[]}]</v>
       </c>
       <c r="I2" t="str">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J2" t="str">
         <v>2025-09-14T10:18:58.085Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>0e3f0a1e-d8a6-44df-b229-03628e5bca16</v>
+      </c>
+      <c r="B3">
+        <v>62</v>
+      </c>
+      <c r="C3" t="str">
+        <v>محمد مجدى السيد عبد الدايم</v>
+      </c>
+      <c r="D3" t="str">
+        <v>20أ القاهرة</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2025-09-14</v>
+      </c>
+      <c r="H3" t="str">
+        <v>[{"id":"expense-1","type":"fees","amount":50,"banks":["كريدى","مانى فيللوز"]},{"id":"expense-2","type":"fees","amount":50,"banks":["كريدى"]}]</v>
+      </c>
+      <c r="I3" t="str">
+        <v>100</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2025-09-14T11:31:03.321Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>6c41556f-a921-4153-bbf5-ec5a27eb2838</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>2025-09-14</v>
+      </c>
+      <c r="H4" t="str">
+        <v>[]</v>
+      </c>
+      <c r="I4" t="str">
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2025-09-14T11:31:55.900Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/missions.xlsx
+++ b/data/missions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,10 +463,10 @@
         <v>2025-09-14</v>
       </c>
       <c r="H2" t="str">
-        <v>[{"id":"expense-1","type":"transportation","amount":100,"banks":["كريدى","مانى فيللوز"]},{"id":"expense-2","type":"transportation","amount":30,"banks":["اسكندرية"]},{"id":"expense-3","type":"hospitality","amount":0,"banks":[]},{"id":"expense-4","type":"fees","amount":0,"banks":[]}]</v>
+        <v>[{"id":"expense-1","type":"transportation","amount":100,"banks":["كريدى","مانى فيللوز"]},{"id":"expense-2","type":"transportation","amount":300,"banks":["اسكندرية"]}]</v>
       </c>
       <c r="I2" t="str">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="J2" t="str">
         <v>2025-09-14T10:18:58.085Z</v>
@@ -498,35 +498,9 @@
         <v>2025-09-14T11:31:03.321Z</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>6c41556f-a921-4153-bbf5-ec5a27eb2838</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v>2025-09-14</v>
-      </c>
-      <c r="H4" t="str">
-        <v>[]</v>
-      </c>
-      <c r="I4" t="str">
-        <v>0</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2025-09-14T11:31:55.900Z</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/missions.xlsx
+++ b/data/missions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,10 +463,10 @@
         <v>2025-09-14</v>
       </c>
       <c r="H2" t="str">
-        <v>[{"id":"expense-1","type":"transportation","amount":100,"banks":["كريدى","مانى فيللوز"]},{"id":"expense-2","type":"transportation","amount":300,"banks":["اسكندرية"]}]</v>
+        <v>[{"id":"expense-1","type":"transportation","amount":0.01,"banks":["كريدى","مانى فيللوز"]},{"id":"expense-2","type":"transportation","amount":300,"banks":["اسكندرية"]}]</v>
       </c>
       <c r="I2" t="str">
-        <v>400</v>
+        <v>300.01</v>
       </c>
       <c r="J2" t="str">
         <v>2025-09-14T10:18:58.085Z</v>
@@ -498,9 +498,38 @@
         <v>2025-09-14T11:31:03.321Z</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3f65f14e-3669-4aa4-8858-3a66a39cef52</v>
+      </c>
+      <c r="B4">
+        <v>675</v>
+      </c>
+      <c r="C4" t="str">
+        <v>كريم خالد محمد محمود</v>
+      </c>
+      <c r="D4" t="str">
+        <v>20أ القاهرة</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2025-09-26</v>
+      </c>
+      <c r="G4" t="str">
+        <v>تتيستسس</v>
+      </c>
+      <c r="H4" t="str">
+        <v>[{"id":"expense-1","type":"transportation","amount":10,"banks":["كريدى","مانى فيللوز"]}]</v>
+      </c>
+      <c r="I4" t="str">
+        <v>10</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2025-09-14T12:02:06.872Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/missions.xlsx
+++ b/data/missions.xlsx
@@ -463,10 +463,10 @@
         <v>2025-09-14</v>
       </c>
       <c r="H2" t="str">
-        <v>[{"id":"expense-1","type":"transportation","amount":0.01,"banks":["كريدى","مانى فيللوز"]},{"id":"expense-2","type":"transportation","amount":300,"banks":["اسكندرية"]}]</v>
+        <v>[{"id":"expense-2","type":"transportation","amount":300,"banks":["اسكندرية"]},{"id":"expense-3","type":"office-supplies","amount":55,"banks":[]}]</v>
       </c>
       <c r="I2" t="str">
-        <v>300.01</v>
+        <v>355</v>
       </c>
       <c r="J2" t="str">
         <v>2025-09-14T10:18:58.085Z</v>
